--- a/Advance Java_Content.xlsx
+++ b/Advance Java_Content.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Working File_Mahesh\1. FY-2024-25\CGI\Proposal\JAS-2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\RPS Vendor\CGI_Adv_Java_Training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48636E92-F260-410D-ACDD-9DD33527CA97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C000DA-7539-43B1-B5CD-33529589E2AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FCA22AD8-E1E1-4B23-8380-1515A8470819}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{FCA22AD8-E1E1-4B23-8380-1515A8470819}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="91">
   <si>
     <t>#</t>
   </si>
@@ -304,6 +305,9 @@
   </si>
   <si>
     <t>120 Hrs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spring batch </t>
   </si>
 </sst>
 </file>
@@ -440,11 +444,11 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -465,9 +469,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -505,7 +509,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -611,7 +615,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -753,7 +757,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -763,18 +767,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83D78942-3B8F-4135-B842-5DBE589E7A1F}">
   <dimension ref="A1:C411"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="B87" sqref="B87"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="127.42578125" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="7"/>
+    <col min="1" max="1" width="8.81640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="127.453125" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -785,7 +789,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
       <c r="B2" s="8" t="s">
         <v>86</v>
@@ -794,7 +798,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -805,7 +809,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -816,57 +820,57 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+    <row r="5" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="10">
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
+      <c r="C5" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="10"/>
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="9"/>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
+      <c r="C6" s="10"/>
+    </row>
+    <row r="7" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="10"/>
       <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="9"/>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+      <c r="C7" s="10"/>
+    </row>
+    <row r="8" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="10">
         <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
+      <c r="C8" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="10"/>
       <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="9"/>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
+      <c r="C9" s="10"/>
+    </row>
+    <row r="10" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="10"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="9"/>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C10" s="10"/>
+    </row>
+    <row r="11" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>5</v>
       </c>
@@ -877,7 +881,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>6</v>
       </c>
@@ -888,107 +892,107 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
+    <row r="13" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="10">
         <v>7</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
+      <c r="C13" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="10"/>
       <c r="B14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="9"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
+      <c r="C14" s="10"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="10">
         <v>8</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
+      <c r="C15" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="10"/>
       <c r="B16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="9"/>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
+      <c r="C16" s="10"/>
+    </row>
+    <row r="17" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="10"/>
       <c r="B17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="9"/>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
+      <c r="C17" s="10"/>
+    </row>
+    <row r="18" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="10">
         <v>9</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
+      <c r="C18" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="10"/>
       <c r="B19" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="9"/>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
+      <c r="C19" s="10"/>
+    </row>
+    <row r="20" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="10"/>
       <c r="B20" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="9"/>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
+      <c r="C20" s="10"/>
+    </row>
+    <row r="21" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="10"/>
       <c r="B21" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="9"/>
-    </row>
-    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
+      <c r="C21" s="10"/>
+    </row>
+    <row r="22" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="10">
         <v>10</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
+      <c r="C22" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="10"/>
       <c r="B23" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="9"/>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
+      <c r="C23" s="10"/>
+    </row>
+    <row r="24" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="10"/>
       <c r="B24" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="9"/>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C24" s="10"/>
+    </row>
+    <row r="25" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>11</v>
       </c>
@@ -999,7 +1003,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>12</v>
       </c>
@@ -1010,7 +1014,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>13</v>
       </c>
@@ -1021,7 +1025,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>14</v>
       </c>
@@ -1032,7 +1036,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>15</v>
       </c>
@@ -1043,7 +1047,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>16</v>
       </c>
@@ -1054,7 +1058,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>17</v>
       </c>
@@ -1065,7 +1069,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>18</v>
       </c>
@@ -1076,7 +1080,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>19</v>
       </c>
@@ -1087,7 +1091,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>20</v>
       </c>
@@ -1098,7 +1102,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>21</v>
       </c>
@@ -1109,7 +1113,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>22</v>
       </c>
@@ -1120,7 +1124,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>23</v>
       </c>
@@ -1131,7 +1135,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>24</v>
       </c>
@@ -1142,7 +1146,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>25</v>
       </c>
@@ -1153,7 +1157,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>26</v>
       </c>
@@ -1164,7 +1168,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>27</v>
       </c>
@@ -1175,7 +1179,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>28</v>
       </c>
@@ -1186,7 +1190,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>29</v>
       </c>
@@ -1197,7 +1201,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>30</v>
       </c>
@@ -1208,7 +1212,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>31</v>
       </c>
@@ -1219,7 +1223,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>32</v>
       </c>
@@ -1230,7 +1234,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>33</v>
       </c>
@@ -1241,7 +1245,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>34</v>
       </c>
@@ -1252,7 +1256,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>35</v>
       </c>
@@ -1263,25 +1267,25 @@
         <v>84</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="9">
+    <row r="50" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A50" s="10">
         <v>36</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C50" s="9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="9"/>
+      <c r="C50" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A51" s="10"/>
       <c r="B51" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C51" s="9"/>
-    </row>
-    <row r="52" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C51" s="10"/>
+    </row>
+    <row r="52" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>37</v>
       </c>
@@ -1292,7 +1296,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>38</v>
       </c>
@@ -1303,7 +1307,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>39</v>
       </c>
@@ -1314,7 +1318,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>40</v>
       </c>
@@ -1325,7 +1329,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
         <v>41</v>
       </c>
@@ -1336,7 +1340,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>42</v>
       </c>
@@ -1347,7 +1351,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>43</v>
       </c>
@@ -1358,7 +1362,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>44</v>
       </c>
@@ -1369,7 +1373,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
         <v>45</v>
       </c>
@@ -1380,7 +1384,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
         <v>46</v>
       </c>
@@ -1391,7 +1395,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
         <v>47</v>
       </c>
@@ -1402,7 +1406,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
         <v>48</v>
       </c>
@@ -1413,7 +1417,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>49</v>
       </c>
@@ -1424,7 +1428,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
         <v>50</v>
       </c>
@@ -1435,7 +1439,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
         <v>51</v>
       </c>
@@ -1446,7 +1450,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
         <v>52</v>
       </c>
@@ -1457,7 +1461,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
         <v>53</v>
       </c>
@@ -1468,7 +1472,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
         <v>54</v>
       </c>
@@ -1479,7 +1483,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
         <v>55</v>
       </c>
@@ -1490,7 +1494,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
         <v>56</v>
       </c>
@@ -1501,7 +1505,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A72" s="3">
         <v>57</v>
       </c>
@@ -1512,7 +1516,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
         <v>58</v>
       </c>
@@ -1523,7 +1527,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
         <v>59</v>
       </c>
@@ -1534,7 +1538,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
         <v>60</v>
       </c>
@@ -1545,7 +1549,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
         <v>61</v>
       </c>
@@ -1556,7 +1560,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
         <v>62</v>
       </c>
@@ -1567,7 +1571,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
         <v>63</v>
       </c>
@@ -1578,7 +1582,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
         <v>64</v>
       </c>
@@ -1589,7 +1593,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
         <v>65</v>
       </c>
@@ -1600,7 +1604,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
         <v>66</v>
       </c>
@@ -1611,7 +1615,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
         <v>67</v>
       </c>
@@ -1622,7 +1626,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A83" s="3">
         <v>68</v>
       </c>
@@ -1633,7 +1637,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A84" s="3">
         <v>69</v>
       </c>
@@ -1644,1003 +1648,1003 @@
         <v>84</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="9">
+    <row r="85" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A85" s="10">
         <v>70</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C85" s="9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="9"/>
+      <c r="C85" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A86" s="10"/>
       <c r="B86" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C86" s="9"/>
-    </row>
-    <row r="87" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C86" s="10"/>
+    </row>
+    <row r="87" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A87" s="3"/>
-      <c r="B87" s="10" t="s">
+      <c r="B87" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C87" s="10" t="s">
+      <c r="C87" s="9" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C88" s="1"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C89" s="1"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C90" s="1"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C91" s="1"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C92" s="1"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C93" s="1"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C94" s="1"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C95" s="1"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C96" s="1"/>
     </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C97" s="1"/>
     </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C98" s="1"/>
     </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C99" s="1"/>
     </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C100" s="1"/>
     </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C101" s="1"/>
     </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C102" s="1"/>
     </row>
-    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C103" s="1"/>
     </row>
-    <row r="104" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C104" s="1"/>
     </row>
-    <row r="105" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C105" s="1"/>
     </row>
-    <row r="106" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C106" s="1"/>
     </row>
-    <row r="107" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C107" s="1"/>
     </row>
-    <row r="108" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C108" s="1"/>
     </row>
-    <row r="109" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C109" s="1"/>
     </row>
-    <row r="110" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C110" s="1"/>
     </row>
-    <row r="111" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C111" s="1"/>
     </row>
-    <row r="112" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C112" s="1"/>
     </row>
-    <row r="113" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C113" s="1"/>
     </row>
-    <row r="114" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C114" s="1"/>
     </row>
-    <row r="115" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C115" s="1"/>
     </row>
-    <row r="116" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C116" s="1"/>
     </row>
-    <row r="117" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C117" s="1"/>
     </row>
-    <row r="118" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C118" s="1"/>
     </row>
-    <row r="119" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C119" s="1"/>
     </row>
-    <row r="120" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C120" s="1"/>
     </row>
-    <row r="121" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C121" s="1"/>
     </row>
-    <row r="122" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C122" s="1"/>
     </row>
-    <row r="123" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C123" s="1"/>
     </row>
-    <row r="124" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C124" s="1"/>
     </row>
-    <row r="125" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C125" s="1"/>
     </row>
-    <row r="126" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C126" s="1"/>
     </row>
-    <row r="127" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C127" s="1"/>
     </row>
-    <row r="128" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C128" s="1"/>
     </row>
-    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C129" s="1"/>
     </row>
-    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C130" s="1"/>
     </row>
-    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C131" s="1"/>
     </row>
-    <row r="132" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C132" s="1"/>
     </row>
-    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C133" s="1"/>
     </row>
-    <row r="134" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C134" s="1"/>
     </row>
-    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C135" s="1"/>
     </row>
-    <row r="136" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C136" s="1"/>
     </row>
-    <row r="137" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C137" s="1"/>
     </row>
-    <row r="138" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C138" s="1"/>
     </row>
-    <row r="139" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C139" s="1"/>
     </row>
-    <row r="140" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C140" s="1"/>
     </row>
-    <row r="141" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C141" s="1"/>
     </row>
-    <row r="142" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C142" s="1"/>
     </row>
-    <row r="143" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C143" s="1"/>
     </row>
-    <row r="144" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C144" s="1"/>
     </row>
-    <row r="145" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C145" s="1"/>
     </row>
-    <row r="146" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C146" s="1"/>
     </row>
-    <row r="147" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C147" s="1"/>
     </row>
-    <row r="148" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C148" s="1"/>
     </row>
-    <row r="149" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C149" s="1"/>
     </row>
-    <row r="150" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C150" s="1"/>
     </row>
-    <row r="151" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C151" s="1"/>
     </row>
-    <row r="152" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C152" s="1"/>
     </row>
-    <row r="153" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C153" s="1"/>
     </row>
-    <row r="154" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C154" s="1"/>
     </row>
-    <row r="155" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C155" s="1"/>
     </row>
-    <row r="156" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C156" s="1"/>
     </row>
-    <row r="157" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C157" s="1"/>
     </row>
-    <row r="158" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C158" s="1"/>
     </row>
-    <row r="159" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C159" s="1"/>
     </row>
-    <row r="160" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C160" s="1"/>
     </row>
-    <row r="161" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C161" s="1"/>
     </row>
-    <row r="162" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C162" s="1"/>
     </row>
-    <row r="163" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C163" s="1"/>
     </row>
-    <row r="164" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C164" s="1"/>
     </row>
-    <row r="165" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C165" s="1"/>
     </row>
-    <row r="166" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C166" s="1"/>
     </row>
-    <row r="167" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C167" s="1"/>
     </row>
-    <row r="168" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C168" s="1"/>
     </row>
-    <row r="169" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C169" s="1"/>
     </row>
-    <row r="170" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C170" s="1"/>
     </row>
-    <row r="171" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C171" s="1"/>
     </row>
-    <row r="172" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C172" s="1"/>
     </row>
-    <row r="173" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C173" s="1"/>
     </row>
-    <row r="174" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C174" s="1"/>
     </row>
-    <row r="175" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C175" s="1"/>
     </row>
-    <row r="176" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C176" s="1"/>
     </row>
-    <row r="177" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C177" s="1"/>
     </row>
-    <row r="178" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C178" s="1"/>
     </row>
-    <row r="179" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C179" s="1"/>
     </row>
-    <row r="180" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C180" s="1"/>
     </row>
-    <row r="181" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C181" s="1"/>
     </row>
-    <row r="182" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C182" s="1"/>
     </row>
-    <row r="183" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C183" s="1"/>
     </row>
-    <row r="184" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C184" s="1"/>
     </row>
-    <row r="185" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C185" s="1"/>
     </row>
-    <row r="186" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C186" s="1"/>
     </row>
-    <row r="187" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C187" s="1"/>
     </row>
-    <row r="188" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C188" s="1"/>
     </row>
-    <row r="189" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C189" s="1"/>
     </row>
-    <row r="190" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C190" s="1"/>
     </row>
-    <row r="191" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C191" s="1"/>
     </row>
-    <row r="192" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C192" s="1"/>
     </row>
-    <row r="193" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C193" s="1"/>
     </row>
-    <row r="194" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C194" s="1"/>
     </row>
-    <row r="195" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C195" s="1"/>
     </row>
-    <row r="196" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C196" s="1"/>
     </row>
-    <row r="197" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C197" s="1"/>
     </row>
-    <row r="198" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C198" s="1"/>
     </row>
-    <row r="199" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C199" s="1"/>
     </row>
-    <row r="200" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C200" s="1"/>
     </row>
-    <row r="201" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C201" s="1"/>
     </row>
-    <row r="202" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C202" s="1"/>
     </row>
-    <row r="203" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C203" s="1"/>
     </row>
-    <row r="204" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C204" s="1"/>
     </row>
-    <row r="205" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C205" s="1"/>
     </row>
-    <row r="206" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C206" s="1"/>
     </row>
-    <row r="207" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C207" s="1"/>
     </row>
-    <row r="208" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C208" s="1"/>
     </row>
-    <row r="209" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C209" s="1"/>
     </row>
-    <row r="210" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C210" s="1"/>
     </row>
-    <row r="211" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C211" s="1"/>
     </row>
-    <row r="212" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C212" s="1"/>
     </row>
-    <row r="213" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C213" s="1"/>
     </row>
-    <row r="214" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C214" s="1"/>
     </row>
-    <row r="215" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C215" s="1"/>
     </row>
-    <row r="216" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C216" s="1"/>
     </row>
-    <row r="217" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C217" s="1"/>
     </row>
-    <row r="218" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C218" s="1"/>
     </row>
-    <row r="219" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C219" s="1"/>
     </row>
-    <row r="220" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C220" s="1"/>
     </row>
-    <row r="221" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C221" s="1"/>
     </row>
-    <row r="222" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C222" s="1"/>
     </row>
-    <row r="223" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C223" s="1"/>
     </row>
-    <row r="224" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C224" s="1"/>
     </row>
-    <row r="225" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C225" s="1"/>
     </row>
-    <row r="226" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C226" s="1"/>
     </row>
-    <row r="227" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C227" s="1"/>
     </row>
-    <row r="228" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C228" s="1"/>
     </row>
-    <row r="229" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C229" s="1"/>
     </row>
-    <row r="230" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C230" s="1"/>
     </row>
-    <row r="231" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C231" s="1"/>
     </row>
-    <row r="232" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C232" s="1"/>
     </row>
-    <row r="233" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C233" s="1"/>
     </row>
-    <row r="234" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C234" s="1"/>
     </row>
-    <row r="235" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C235" s="1"/>
     </row>
-    <row r="236" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C236" s="1"/>
     </row>
-    <row r="237" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C237" s="1"/>
     </row>
-    <row r="238" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C238" s="1"/>
     </row>
-    <row r="239" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C239" s="1"/>
     </row>
-    <row r="240" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C240" s="1"/>
     </row>
-    <row r="241" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C241" s="1"/>
     </row>
-    <row r="242" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C242" s="1"/>
     </row>
-    <row r="243" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C243" s="1"/>
     </row>
-    <row r="244" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C244" s="1"/>
     </row>
-    <row r="245" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C245" s="1"/>
     </row>
-    <row r="246" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C246" s="1"/>
     </row>
-    <row r="247" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C247" s="1"/>
     </row>
-    <row r="248" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C248" s="1"/>
     </row>
-    <row r="249" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C249" s="1"/>
     </row>
-    <row r="250" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C250" s="1"/>
     </row>
-    <row r="251" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C251" s="1"/>
     </row>
-    <row r="252" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C252" s="1"/>
     </row>
-    <row r="253" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C253" s="1"/>
     </row>
-    <row r="254" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="254" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C254" s="1"/>
     </row>
-    <row r="255" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="255" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C255" s="1"/>
     </row>
-    <row r="256" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C256" s="1"/>
     </row>
-    <row r="257" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C257" s="1"/>
     </row>
-    <row r="258" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C258" s="1"/>
     </row>
-    <row r="259" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="259" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C259" s="1"/>
     </row>
-    <row r="260" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="260" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C260" s="1"/>
     </row>
-    <row r="261" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="261" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C261" s="1"/>
     </row>
-    <row r="262" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="262" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C262" s="1"/>
     </row>
-    <row r="263" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="263" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C263" s="1"/>
     </row>
-    <row r="264" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="264" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C264" s="1"/>
     </row>
-    <row r="265" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="265" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C265" s="1"/>
     </row>
-    <row r="266" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="266" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C266" s="1"/>
     </row>
-    <row r="267" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="267" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C267" s="1"/>
     </row>
-    <row r="268" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="268" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C268" s="1"/>
     </row>
-    <row r="269" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="269" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C269" s="1"/>
     </row>
-    <row r="270" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="270" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C270" s="1"/>
     </row>
-    <row r="271" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="271" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C271" s="1"/>
     </row>
-    <row r="272" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="272" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C272" s="1"/>
     </row>
-    <row r="273" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="273" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C273" s="1"/>
     </row>
-    <row r="274" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="274" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C274" s="1"/>
     </row>
-    <row r="275" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="275" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C275" s="1"/>
     </row>
-    <row r="276" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="276" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C276" s="1"/>
     </row>
-    <row r="277" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="277" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C277" s="1"/>
     </row>
-    <row r="278" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="278" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C278" s="1"/>
     </row>
-    <row r="279" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="279" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C279" s="1"/>
     </row>
-    <row r="280" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="280" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C280" s="1"/>
     </row>
-    <row r="281" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="281" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C281" s="1"/>
     </row>
-    <row r="282" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="282" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C282" s="1"/>
     </row>
-    <row r="283" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="283" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C283" s="1"/>
     </row>
-    <row r="284" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="284" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C284" s="1"/>
     </row>
-    <row r="285" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="285" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C285" s="1"/>
     </row>
-    <row r="286" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="286" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C286" s="1"/>
     </row>
-    <row r="287" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="287" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C287" s="1"/>
     </row>
-    <row r="288" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="288" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C288" s="1"/>
     </row>
-    <row r="289" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="289" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C289" s="1"/>
     </row>
-    <row r="290" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="290" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C290" s="1"/>
     </row>
-    <row r="291" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="291" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C291" s="1"/>
     </row>
-    <row r="292" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="292" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C292" s="1"/>
     </row>
-    <row r="293" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="293" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C293" s="1"/>
     </row>
-    <row r="294" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="294" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C294" s="1"/>
     </row>
-    <row r="295" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="295" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C295" s="1"/>
     </row>
-    <row r="296" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="296" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C296" s="1"/>
     </row>
-    <row r="297" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="297" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C297" s="1"/>
     </row>
-    <row r="298" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="298" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C298" s="1"/>
     </row>
-    <row r="299" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="299" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C299" s="1"/>
     </row>
-    <row r="300" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="300" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C300" s="1"/>
     </row>
-    <row r="301" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="301" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C301" s="1"/>
     </row>
-    <row r="302" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="302" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C302" s="1"/>
     </row>
-    <row r="303" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="303" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C303" s="1"/>
     </row>
-    <row r="304" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="304" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C304" s="1"/>
     </row>
-    <row r="305" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="305" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C305" s="1"/>
     </row>
-    <row r="306" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="306" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C306" s="1"/>
     </row>
-    <row r="307" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="307" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C307" s="1"/>
     </row>
-    <row r="308" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="308" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C308" s="1"/>
     </row>
-    <row r="309" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="309" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C309" s="1"/>
     </row>
-    <row r="310" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="310" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C310" s="1"/>
     </row>
-    <row r="311" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="311" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C311" s="1"/>
     </row>
-    <row r="312" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="312" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C312" s="1"/>
     </row>
-    <row r="313" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="313" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C313" s="1"/>
     </row>
-    <row r="314" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="314" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C314" s="1"/>
     </row>
-    <row r="315" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="315" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C315" s="1"/>
     </row>
-    <row r="316" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="316" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C316" s="1"/>
     </row>
-    <row r="317" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="317" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C317" s="1"/>
     </row>
-    <row r="318" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="318" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C318" s="1"/>
     </row>
-    <row r="319" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="319" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C319" s="1"/>
     </row>
-    <row r="320" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="320" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C320" s="1"/>
     </row>
-    <row r="321" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="321" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C321" s="1"/>
     </row>
-    <row r="322" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="322" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C322" s="1"/>
     </row>
-    <row r="323" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="323" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C323" s="1"/>
     </row>
-    <row r="324" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="324" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C324" s="1"/>
     </row>
-    <row r="325" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="325" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C325" s="1"/>
     </row>
-    <row r="326" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="326" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C326" s="1"/>
     </row>
-    <row r="327" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="327" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C327" s="1"/>
     </row>
-    <row r="328" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="328" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C328" s="1"/>
     </row>
-    <row r="329" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="329" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C329" s="1"/>
     </row>
-    <row r="330" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="330" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C330" s="1"/>
     </row>
-    <row r="331" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="331" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C331" s="1"/>
     </row>
-    <row r="332" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="332" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C332" s="1"/>
     </row>
-    <row r="333" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="333" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C333" s="1"/>
     </row>
-    <row r="334" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="334" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C334" s="1"/>
     </row>
-    <row r="335" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="335" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C335" s="1"/>
     </row>
-    <row r="336" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="336" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C336" s="1"/>
     </row>
-    <row r="337" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="337" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C337" s="1"/>
     </row>
-    <row r="338" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="338" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C338" s="1"/>
     </row>
-    <row r="339" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="339" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C339" s="1"/>
     </row>
-    <row r="340" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="340" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C340" s="1"/>
     </row>
-    <row r="341" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="341" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C341" s="1"/>
     </row>
-    <row r="342" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="342" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C342" s="1"/>
     </row>
-    <row r="343" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="343" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C343" s="1"/>
     </row>
-    <row r="344" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="344" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C344" s="1"/>
     </row>
-    <row r="345" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="345" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C345" s="1"/>
     </row>
-    <row r="346" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="346" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C346" s="1"/>
     </row>
-    <row r="347" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="347" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C347" s="1"/>
     </row>
-    <row r="348" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="348" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C348" s="1"/>
     </row>
-    <row r="349" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="349" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C349" s="1"/>
     </row>
-    <row r="350" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="350" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C350" s="1"/>
     </row>
-    <row r="351" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="351" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C351" s="1"/>
     </row>
-    <row r="352" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="352" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C352" s="1"/>
     </row>
-    <row r="353" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="353" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C353" s="1"/>
     </row>
-    <row r="354" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="354" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C354" s="1"/>
     </row>
-    <row r="355" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="355" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C355" s="1"/>
     </row>
-    <row r="356" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="356" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C356" s="1"/>
     </row>
-    <row r="357" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="357" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C357" s="1"/>
     </row>
-    <row r="358" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="358" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C358" s="1"/>
     </row>
-    <row r="359" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="359" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C359" s="1"/>
     </row>
-    <row r="360" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="360" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C360" s="1"/>
     </row>
-    <row r="361" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="361" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C361" s="1"/>
     </row>
-    <row r="362" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="362" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C362" s="1"/>
     </row>
-    <row r="363" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="363" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C363" s="1"/>
     </row>
-    <row r="364" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="364" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C364" s="1"/>
     </row>
-    <row r="365" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="365" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C365" s="1"/>
     </row>
-    <row r="366" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="366" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C366" s="1"/>
     </row>
-    <row r="367" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="367" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C367" s="1"/>
     </row>
-    <row r="368" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="368" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C368" s="1"/>
     </row>
-    <row r="369" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="369" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C369" s="1"/>
     </row>
-    <row r="370" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="370" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C370" s="1"/>
     </row>
-    <row r="371" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="371" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C371" s="1"/>
     </row>
-    <row r="372" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="372" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C372" s="1"/>
     </row>
-    <row r="373" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="373" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C373" s="1"/>
     </row>
-    <row r="374" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="374" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C374" s="1"/>
     </row>
-    <row r="375" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="375" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C375" s="1"/>
     </row>
-    <row r="376" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="376" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C376" s="1"/>
     </row>
-    <row r="377" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="377" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C377" s="1"/>
     </row>
-    <row r="378" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="378" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C378" s="1"/>
     </row>
-    <row r="379" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="379" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C379" s="1"/>
     </row>
-    <row r="380" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="380" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C380" s="1"/>
     </row>
-    <row r="381" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="381" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C381" s="1"/>
     </row>
-    <row r="382" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="382" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C382" s="1"/>
     </row>
-    <row r="383" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="383" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C383" s="1"/>
     </row>
-    <row r="384" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="384" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C384" s="1"/>
     </row>
-    <row r="385" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="385" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C385" s="1"/>
     </row>
-    <row r="386" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="386" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C386" s="1"/>
     </row>
-    <row r="387" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="387" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C387" s="1"/>
     </row>
-    <row r="388" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="388" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C388" s="1"/>
     </row>
-    <row r="389" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="389" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C389" s="1"/>
     </row>
-    <row r="390" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="390" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C390" s="1"/>
     </row>
-    <row r="391" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="391" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C391" s="1"/>
     </row>
-    <row r="392" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="392" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C392" s="1"/>
     </row>
-    <row r="393" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="393" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C393" s="1"/>
     </row>
-    <row r="394" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="394" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C394" s="1"/>
     </row>
-    <row r="395" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="395" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C395" s="1"/>
     </row>
-    <row r="396" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="396" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C396" s="1"/>
     </row>
-    <row r="397" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="397" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C397" s="1"/>
     </row>
-    <row r="398" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="398" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C398" s="1"/>
     </row>
-    <row r="399" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="399" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C399" s="1"/>
     </row>
-    <row r="400" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="400" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C400" s="1"/>
     </row>
-    <row r="401" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="401" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C401" s="1"/>
     </row>
-    <row r="402" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="402" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C402" s="1"/>
     </row>
-    <row r="403" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="403" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C403" s="1"/>
     </row>
-    <row r="404" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="404" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C404" s="1"/>
     </row>
-    <row r="405" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="405" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C405" s="1"/>
     </row>
-    <row r="406" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="406" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C406" s="1"/>
     </row>
-    <row r="407" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="407" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C407" s="1"/>
     </row>
-    <row r="408" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="408" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C408" s="1"/>
     </row>
-    <row r="409" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="409" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C409" s="1"/>
     </row>
-    <row r="410" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="410" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C410" s="1"/>
     </row>
-    <row r="411" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="411" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C411" s="1"/>
     </row>
   </sheetData>
@@ -2667,4 +2671,24 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0413E72-7CA2-414E-AE44-881161C62E6D}">
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Advance Java_Content.xlsx
+++ b/Advance Java_Content.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\RPS Vendor\CGI_Adv_Java_Training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C000DA-7539-43B1-B5CD-33529589E2AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B2836AE-955F-47E5-A78C-69A0B4B268D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{FCA22AD8-E1E1-4B23-8380-1515A8470819}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FCA22AD8-E1E1-4B23-8380-1515A8470819}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="95">
   <si>
     <t>#</t>
   </si>
@@ -308,6 +308,18 @@
   </si>
   <si>
     <t xml:space="preserve">Spring batch </t>
+  </si>
+  <si>
+    <t xml:space="preserve">java 8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Studnt feedback </t>
+  </si>
+  <si>
+    <t xml:space="preserve">All Partiicipants know </t>
+  </si>
+  <si>
+    <t xml:space="preserve">lambda </t>
   </si>
 </sst>
 </file>
@@ -390,7 +402,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -413,12 +425,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -450,6 +471,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -765,10 +790,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83D78942-3B8F-4135-B842-5DBE589E7A1F}">
-  <dimension ref="A1:C411"/>
+  <dimension ref="A1:E411"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -776,9 +801,10 @@
     <col min="1" max="1" width="8.81640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="127.453125" customWidth="1"/>
     <col min="3" max="3" width="9.1796875" style="7"/>
+    <col min="5" max="5" width="31.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -788,8 +814,11 @@
       <c r="C1" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="E1" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
       <c r="B2" s="8" t="s">
         <v>86</v>
@@ -798,7 +827,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -808,8 +837,14 @@
       <c r="C3" s="7" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D3" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -819,8 +854,14 @@
       <c r="C4" s="7" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="10">
         <v>3</v>
       </c>
@@ -831,21 +872,21 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="10"/>
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="10"/>
     </row>
-    <row r="7" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="10"/>
       <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="10"/>
     </row>
-    <row r="8" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="10">
         <v>4</v>
       </c>
@@ -856,21 +897,21 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="10"/>
       <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="10"/>
     </row>
-    <row r="10" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="10"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="10"/>
     </row>
-    <row r="11" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>5</v>
       </c>
@@ -881,7 +922,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>6</v>
       </c>
@@ -892,7 +933,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="10">
         <v>7</v>
       </c>
@@ -903,14 +944,14 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="10"/>
       <c r="B14" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="10"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="10">
         <v>8</v>
       </c>
@@ -921,7 +962,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="10"/>
       <c r="B16" s="4" t="s">
         <v>14</v>
@@ -2677,7 +2718,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0413E72-7CA2-414E-AE44-881161C62E6D}">
   <dimension ref="B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>

--- a/Advance Java_Content.xlsx
+++ b/Advance Java_Content.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\RPS Vendor\CGI_Adv_Java_Training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B2836AE-955F-47E5-A78C-69A0B4B268D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9638D87C-9DCC-42D8-9644-C3BC30C1884A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FCA22AD8-E1E1-4B23-8380-1515A8470819}"/>
   </bookViews>
@@ -468,13 +468,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -792,14 +792,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83D78942-3B8F-4135-B842-5DBE589E7A1F}">
   <dimension ref="A1:E411"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.81640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="127.453125" customWidth="1"/>
+    <col min="2" max="2" width="121.26953125" customWidth="1"/>
     <col min="3" max="3" width="9.1796875" style="7"/>
     <col min="5" max="5" width="31.1796875" customWidth="1"/>
   </cols>
@@ -814,7 +814,7 @@
       <c r="C1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>92</v>
       </c>
     </row>
@@ -837,7 +837,7 @@
       <c r="C3" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>91</v>
       </c>
       <c r="E3" t="s">
@@ -862,54 +862,54 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="10">
+      <c r="A5" s="12">
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="12" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="10"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="10"/>
+      <c r="C6" s="12"/>
     </row>
     <row r="7" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="10"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="10"/>
+      <c r="C7" s="12"/>
     </row>
     <row r="8" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="10">
+      <c r="A8" s="12">
         <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="12" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="10"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="10"/>
+      <c r="C9" s="12"/>
     </row>
     <row r="10" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="10"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="10"/>
+      <c r="C10" s="12"/>
     </row>
     <row r="11" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
@@ -934,104 +934,104 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="10">
+      <c r="A13" s="12">
         <v>7</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="12" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="10"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="10"/>
+      <c r="C14" s="12"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="10">
+      <c r="A15" s="12">
         <v>8</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="12" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="10"/>
+      <c r="A16" s="12"/>
       <c r="B16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="10"/>
+      <c r="C16" s="12"/>
     </row>
     <row r="17" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="10"/>
+      <c r="A17" s="12"/>
       <c r="B17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="10"/>
+      <c r="C17" s="12"/>
     </row>
     <row r="18" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="10">
+      <c r="A18" s="12">
         <v>9</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="12" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="10"/>
+      <c r="A19" s="12"/>
       <c r="B19" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="10"/>
+      <c r="C19" s="12"/>
     </row>
     <row r="20" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="10"/>
+      <c r="A20" s="12"/>
       <c r="B20" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="10"/>
+      <c r="C20" s="12"/>
     </row>
     <row r="21" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="10"/>
+      <c r="A21" s="12"/>
       <c r="B21" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="10"/>
+      <c r="C21" s="12"/>
     </row>
     <row r="22" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="10">
+      <c r="A22" s="12">
         <v>10</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="12" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="10"/>
+      <c r="A23" s="12"/>
       <c r="B23" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="10"/>
+      <c r="C23" s="12"/>
     </row>
     <row r="24" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="10"/>
+      <c r="A24" s="12"/>
       <c r="B24" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="10"/>
+      <c r="C24" s="12"/>
     </row>
     <row r="25" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
@@ -1309,22 +1309,22 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A50" s="10">
+      <c r="A50" s="12">
         <v>36</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C50" s="12" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A51" s="10"/>
+      <c r="A51" s="12"/>
       <c r="B51" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C51" s="10"/>
+      <c r="C51" s="12"/>
     </row>
     <row r="52" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
@@ -1690,22 +1690,22 @@
       </c>
     </row>
     <row r="85" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A85" s="10">
+      <c r="A85" s="12">
         <v>70</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C85" s="10" t="s">
+      <c r="C85" s="12" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A86" s="10"/>
+      <c r="A86" s="12"/>
       <c r="B86" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C86" s="10"/>
+      <c r="C86" s="12"/>
     </row>
     <row r="87" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A87" s="3"/>

--- a/Advance Java_Content.xlsx
+++ b/Advance Java_Content.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\RPS Vendor\CGI_Adv_Java_Training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9638D87C-9DCC-42D8-9644-C3BC30C1884A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C091C529-E3B9-4686-89A2-3101F0C19125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FCA22AD8-E1E1-4B23-8380-1515A8470819}"/>
   </bookViews>
@@ -792,8 +792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83D78942-3B8F-4135-B842-5DBE589E7A1F}">
   <dimension ref="A1:E411"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Advance Java_Content.xlsx
+++ b/Advance Java_Content.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\RPS Vendor\CGI_Adv_Java_Training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C091C529-E3B9-4686-89A2-3101F0C19125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9805E9F-E0FB-4E61-A540-ED9B1D90B646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FCA22AD8-E1E1-4B23-8380-1515A8470819}"/>
   </bookViews>
@@ -792,8 +792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83D78942-3B8F-4135-B842-5DBE589E7A1F}">
   <dimension ref="A1:E411"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Advance Java_Content.xlsx
+++ b/Advance Java_Content.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\RPS Vendor\CGI_Adv_Java_Training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9805E9F-E0FB-4E61-A540-ED9B1D90B646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{454FFAC9-046D-48F1-AE42-624326945351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FCA22AD8-E1E1-4B23-8380-1515A8470819}"/>
   </bookViews>
@@ -792,8 +792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83D78942-3B8F-4135-B842-5DBE589E7A1F}">
   <dimension ref="A1:E411"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
